--- a/仕様書/エネミーNPC.xlsx
+++ b/仕様書/エネミーNPC.xlsx
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様書/エネミーNPC.xlsx
+++ b/仕様書/エネミーNPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>エネミーの仕様</t>
     <rPh sb="5" eb="7">
@@ -36,19 +36,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤い文字はプランナーが数値いじれるようにしておいてください</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>スウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>視界に入ってない状態が</t>
     </r>
@@ -710,6 +697,315 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ジュンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートお客さん</t>
+    <rPh sb="4" eb="5">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店員</t>
+    <rPh sb="0" eb="2">
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は敵対</t>
+    <rPh sb="1" eb="3">
+      <t>テキタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は普段は通常</t>
+    <rPh sb="1" eb="3">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常時は巡回</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートはもっていない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巡回中、曲がるときに左右を確認する（モーション：首を振る）このとき視界も動く</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンカイチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クビ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが攻撃中、店員の視界に入ったら警戒モード</t>
+    <rPh sb="6" eb="9">
+      <t>コウゲキチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>警戒モードは警備員を呼び出す（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション叫ぶ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ケイカイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>カートの中に人が入っていると追従（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>走る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）モード</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイジュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青い文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はモーションです</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤い文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はプランナーが数値いじれるようにしておいてください</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特売品店員</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤーが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>視界４５°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以内に入ったら警戒モード</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -799,12 +1095,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -930,15 +1228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
+      <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -947,7 +1245,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324725" y="2066927"/>
+          <a:off x="7343775" y="2028827"/>
           <a:ext cx="4724400" cy="752473"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1237,168 +1535,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K1" s="6"/>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>23</v>
+      <c r="A19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>24</v>
+      <c r="A21" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
+      <c r="A29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>28</v>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1411,27 +1775,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>31</v>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/エネミーNPC.xlsx
+++ b/仕様書/エネミーNPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>エネミーの仕様</t>
     <rPh sb="5" eb="7">
@@ -1006,6 +1006,96 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ケイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE/BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はSEやBGMです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE：回避</t>
+    <rPh sb="3" eb="5">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEはプレイヤーの物を流用</t>
+    <rPh sb="9" eb="10">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>巡回中、曲がるときに左右を確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（モーション：首を振る）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>このとき視界も動く</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ジュンカイチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クビ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE：叫ぶ</t>
+    <rPh sb="3" eb="4">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE：投げる</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1014,7 +1104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,8 +1152,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,6 +1187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1095,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1103,6 +1214,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1129,16 +1242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1147,7 +1260,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848475" y="923925"/>
+          <a:off x="5619750" y="1171575"/>
           <a:ext cx="790575" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1183,16 +1296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
+      <xdr:rowOff>219077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1201,7 +1314,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7410450" y="276225"/>
+          <a:off x="6248400" y="438150"/>
           <a:ext cx="4610100" cy="971552"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1227,16 +1340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1245,7 +1358,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343775" y="2028827"/>
+          <a:off x="6172200" y="1905002"/>
           <a:ext cx="4724400" cy="752473"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1535,28 +1648,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1564,203 +1683,221 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H13" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="H16" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G25" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="F41" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>27</v>
       </c>

--- a/仕様書/エネミーNPC.xlsx
+++ b/仕様書/エネミーNPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="エネミー" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>エネミーの仕様</t>
     <rPh sb="5" eb="7">
@@ -1096,6 +1096,22 @@
     <t>SE：投げる</t>
     <rPh sb="3" eb="4">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが操作するカートにぶつかった時カートの上に乗せる</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1650,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1912,11 +1928,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1925,38 +1939,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>

--- a/仕様書/エネミーNPC.xlsx
+++ b/仕様書/エネミーNPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>エネミーの仕様</t>
     <rPh sb="5" eb="7">
@@ -964,13 +964,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>魚</t>
-    <rPh sb="0" eb="1">
-      <t>サカナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>プレイヤーが</t>
     </r>
@@ -1112,6 +1105,68 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は人型</t>
+    <rPh sb="1" eb="3">
+      <t>ヒトガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は四足歩行</t>
+    <rPh sb="1" eb="3">
+      <t>ヨンソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション：吹っ飛ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚（特殊）</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹っ飛んだときNPCのカートはプレイヤーがぶつかった方向と逆の方向に吹っ飛ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1222,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1232,6 +1287,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1666,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1709,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -1766,7 +1824,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1784,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1827,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1892,12 +1950,12 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -1905,7 +1963,7 @@
         <v>42</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -1928,69 +1986,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J1" s="5"/>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>49</v>
+      <c r="A48" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書/エネミーNPC.xlsx
+++ b/仕様書/エネミーNPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>エネミーの仕様</t>
     <rPh sb="5" eb="7">
@@ -1167,6 +1167,176 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供を連れて移動する</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的な部分は歩きお客さんと変わらない</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子連れお客さんをカートに乗せたときプレイヤーを追従</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追従中はカートの中の人と同じ扱いとする（特売品を変える数＋１とする）</t>
+    <rPh sb="0" eb="2">
+      <t>ツイジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子連れお客さんがカートから離れたときプレイヤーから追従をやめる</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常時は子連れお客さんと一緒に移動。（横に一緒に歩いている感じ）</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特売品に乗って現れる</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定位置に移動すると特売品から降りる</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1724,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1986,15 +2156,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -2082,31 +2252,98 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+      <c r="A30" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="10" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="10" t="s">
         <v>61</v>
       </c>
     </row>

--- a/仕様書/エネミーNPC.xlsx
+++ b/仕様書/エネミーNPC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>エネミーの仕様</t>
     <rPh sb="5" eb="7">
@@ -1337,6 +1337,58 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーの生成はプレハブなどでプランナーが生成できるように</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特売品店員が乗ってきたときに同時に現れる</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定位置にいどうすると店員を下す</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーやおばさんからにげようと離れる</t>
+    <rPh sb="17" eb="18">
+      <t>ハナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1894,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1958,6 +2010,9 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -2158,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2212,6 +2267,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>34</v>
@@ -2337,8 +2397,33 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
     </row>
